--- a/static/resultados.xlsx
+++ b/static/resultados.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>8139478700000000</v>
+        <v>2.85421856e+16</v>
       </c>
     </row>
     <row r="3">
@@ -484,14 +484,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>196200000000</v>
+        <v>98100000000</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>8139478700000000</v>
+        <v>2.85421856e+16</v>
       </c>
     </row>
     <row r="4">
@@ -501,14 +501,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>810000000000</v>
+        <v>4050000000000</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>8139478700000000</v>
+        <v>2.85421856e+16</v>
       </c>
     </row>
     <row r="5">
@@ -518,14 +518,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>7500000000000000</v>
+        <v>2.25e+16</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>8139478700000000</v>
+        <v>2.85421856e+16</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>652500000000</v>
+        <v>217500000000</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>8139478700000000</v>
+        <v>2.85421856e+16</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>8139478700000000</v>
+        <v>2.85421856e+16</v>
       </c>
     </row>
     <row r="8">
@@ -569,14 +569,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>600000000000000</v>
+        <v>6000000000000000</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>8139478700000000</v>
+        <v>2.85421856e+16</v>
       </c>
     </row>
   </sheetData>

--- a/static/resultados.xlsx
+++ b/static/resultados.xlsx
@@ -467,14 +467,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>37800000000000</v>
+        <v>168000000000000</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>2.85421856e+16</v>
+        <v>1.24697398e+17</v>
       </c>
     </row>
     <row r="3">
@@ -484,14 +484,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>98100000000</v>
+        <v>3924000000000</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>2.85421856e+16</v>
+        <v>1.24697398e+17</v>
       </c>
     </row>
     <row r="4">
@@ -501,14 +501,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4050000000000</v>
+        <v>24300000000000</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>2.85421856e+16</v>
+        <v>1.24697398e+17</v>
       </c>
     </row>
     <row r="5">
@@ -518,14 +518,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>2.25e+16</v>
+        <v>4500000000000000</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>2.85421856e+16</v>
+        <v>1.24697398e+17</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>217500000000</v>
+        <v>174000000000</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>2.85421856e+16</v>
+        <v>1.24697398e+17</v>
       </c>
     </row>
     <row r="7">
@@ -552,14 +552,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>20000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>2.85421856e+16</v>
+        <v>1.24697398e+17</v>
       </c>
     </row>
     <row r="8">
@@ -569,14 +569,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>6000000000000000</v>
+        <v>1.2e+17</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>2.85421856e+16</v>
+        <v>1.24697398e+17</v>
       </c>
     </row>
   </sheetData>

--- a/static/resultados.xlsx
+++ b/static/resultados.xlsx
@@ -467,14 +467,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>168000000000000</v>
+        <v>126000000000000</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>1.24697398e+17</v>
+        <v>1.231471675e+17</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>1.24697398e+17</v>
+        <v>1.231471675e+17</v>
       </c>
     </row>
     <row r="4">
@@ -501,14 +501,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>24300000000000</v>
+        <v>16200000000000</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1.24697398e+17</v>
+        <v>1.231471675e+17</v>
       </c>
     </row>
     <row r="5">
@@ -518,14 +518,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>4500000000000000</v>
+        <v>3000000000000000</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1.24697398e+17</v>
+        <v>1.231471675e+17</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>174000000000</v>
+        <v>43500000000</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>1.24697398e+17</v>
+        <v>1.231471675e+17</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1.24697398e+17</v>
+        <v>1.231471675e+17</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>1.24697398e+17</v>
+        <v>1.231471675e+17</v>
       </c>
     </row>
   </sheetData>
